--- a/src/demos/zdemo_excel15_31.w3mi.data.xlsx
+++ b/src/demos/zdemo_excel15_31.w3mi.data.xlsx
@@ -484,7 +484,7 @@
     <col min="3" max="3" width="2.9840909090909090E+01" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -495,7 +495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -506,7 +506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -517,7 +517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -528,7 +528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -539,7 +539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -550,7 +550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -561,7 +561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -572,7 +572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -583,7 +583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -594,7 +594,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -605,7 +605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -616,7 +616,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -627,7 +627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -638,7 +638,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -649,7 +649,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -660,7 +660,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -671,7 +671,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -682,7 +682,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -693,7 +693,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -728,7 +728,7 @@
     <col min="3" max="3" width="2.9840909090909090E+01" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -739,7 +739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -750,7 +750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -761,7 +761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -772,7 +772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -783,7 +783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -794,7 +794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -805,7 +805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -816,7 +816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -827,7 +827,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -838,7 +838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -849,7 +849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -860,7 +860,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
@@ -871,7 +871,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
@@ -882,7 +882,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
@@ -893,7 +893,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
@@ -904,7 +904,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
@@ -915,7 +915,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
@@ -926,7 +926,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
@@ -937,7 +937,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
@@ -972,7 +972,7 @@
     <col min="3" max="3" width="2.9840909090909090E+01" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -983,7 +983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -994,7 +994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A12" s="7" t="s">
         <v>14</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A14" s="7" t="s">
         <v>16</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A16" s="7" t="s">
         <v>18</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A17" s="7" t="s">
         <v>19</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A18" s="7" t="s">
         <v>20</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A19" s="7" t="s">
         <v>21</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" ht="0.0000000000000000E+00">
       <c r="A20" s="7" t="s">
         <v>22</v>
       </c>
@@ -1211,20 +1211,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.10" bestFit="true"/>
+    <col min="1" max="1" width="9.0999999999999996E+00" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" ht="0.0000000000000000E+00">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" ht="0.0000000000000000E+00">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" ht="0.0000000000000000E+00">
       <c r="A3" t="s">
         <v>1</v>
       </c>

--- a/src/demos/zdemo_excel15_31.w3mi.data.xlsx
+++ b/src/demos/zdemo_excel15_31.w3mi.data.xlsx
@@ -322,7 +322,7 @@
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -460,9 +460,9 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst/>
+  <a:objectDefaults xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+  <a:extraClrSchemeLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+  <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
 </a:theme>
 </file>
 
